--- a/02_設計/00_サンプル/クラス図.xlsx
+++ b/02_設計/00_サンプル/クラス図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="372" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB00B51-E78D-4997-900A-386A934C4EAF}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F8CC99-C75C-4D15-98E6-974663933A2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,23 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能ID</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名称</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>凡例</t>
     <rPh sb="0" eb="2">
       <t>ハンレイ</t>
@@ -178,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「+」・・・すべてのクラスからアクセス可能(public)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,6 +181,27 @@
   </si>
   <si>
     <t>F0-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,6 +617,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -676,12 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2357,7 +2357,7 @@
   <sheetData>
     <row r="11" spans="6:6" ht="58.2">
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3038,6 +3038,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -3050,102 +3146,6 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3167,155 +3167,155 @@
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="34" t="s">
-        <v>19</v>
+      <c r="A1" s="36" t="s">
+        <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="30" t="s">
-        <v>16</v>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="32" t="s">
+        <v>27</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="31"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="33"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="32" t="s">
-        <v>17</v>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="33"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="35"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40" t="s">
-        <v>28</v>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="19"/>
     </row>
     <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
@@ -3363,12 +3363,12 @@
       <c r="AQ4" s="8"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="21" t="s">
-        <v>18</v>
+      <c r="A5" s="23" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3410,10 +3410,10 @@
       <c r="AQ5" s="7"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3427,7 +3427,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -3457,10 +3457,10 @@
       <c r="AQ6" s="8"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3474,7 +3474,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -3504,10 +3504,10 @@
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3521,7 +3521,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -3568,7 +3568,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3643,51 +3643,51 @@
       <c r="AQ10" s="12"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="18" t="s">
-        <v>19</v>
+      <c r="A11" s="20" t="s">
+        <v>17</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="22"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="9"/>
@@ -6121,6 +6121,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:AQ3"/>
     <mergeCell ref="A11:AQ11"/>
     <mergeCell ref="A5:D8"/>
@@ -6137,7 +6138,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6161,167 +6161,167 @@
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="34" t="s">
-        <v>19</v>
+      <c r="A1" s="36" t="s">
+        <v>17</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="30" t="s">
-        <v>16</v>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="32" t="s">
+        <v>27</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
-        <v>29</v>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
+        <v>26</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30" t="s">
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="30"/>
+      <c r="AB1" s="32"/>
       <c r="AC1" s="42">
         <v>44365</v>
       </c>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30" t="s">
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="30"/>
+      <c r="AJ1" s="32"/>
       <c r="AK1" s="42">
         <v>44365</v>
       </c>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="31"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="33"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="32" t="s">
-        <v>17</v>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32" t="s">
-        <v>24</v>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
+        <v>29</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32" t="s">
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="32"/>
+      <c r="AB2" s="34"/>
       <c r="AC2" s="43">
         <v>44365</v>
       </c>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32" t="s">
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="32"/>
+      <c r="AJ2" s="34"/>
       <c r="AK2" s="43">
         <v>44365</v>
       </c>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="33"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="35"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40" t="s">
-        <v>28</v>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="41"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="19"/>
     </row>
     <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
@@ -6369,12 +6369,12 @@
       <c r="AQ4" s="8"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="21" t="s">
-        <v>18</v>
+      <c r="A5" s="23" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -6416,10 +6416,10 @@
       <c r="AQ5" s="7"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -6433,7 +6433,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -6463,10 +6463,10 @@
       <c r="AQ6" s="8"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -6480,7 +6480,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -6510,10 +6510,10 @@
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -6527,7 +6527,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -6574,7 +6574,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -6649,51 +6649,51 @@
       <c r="AQ10" s="12"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="18" t="s">
-        <v>19</v>
+      <c r="A11" s="20" t="s">
+        <v>17</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="22"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="9"/>
@@ -8002,6 +8002,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O3:AQ3"/>
     <mergeCell ref="A5:D8"/>
     <mergeCell ref="A11:AQ11"/>
     <mergeCell ref="AK1:AQ1"/>
@@ -8018,7 +8019,6 @@
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
